--- a/dist/Вывод/aosr-prikaz-344.xlsx
+++ b/dist/Вывод/aosr-prikaz-344.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="АОСР" sheetId="1" state="visible" r:id="rId1"/>
@@ -250,6 +250,30 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
@@ -259,41 +283,17 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -703,8 +703,8 @@
   </sheetPr>
   <dimension ref="A1:AQ110"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="125" zoomScaleNormal="125" zoomScaleSheetLayoutView="125" workbookViewId="0">
-      <selection activeCell="AN34" sqref="AN34"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="125" zoomScaleNormal="125" zoomScaleSheetLayoutView="125" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.6640625" defaultRowHeight="15"/>
@@ -745,7 +745,7 @@
       <c r="AQ3" s="16" t="n"/>
     </row>
     <row r="4" ht="12" customHeight="1">
-      <c r="A4" s="34" t="n"/>
+      <c r="A4" s="33" t="n"/>
       <c r="B4" s="43" t="n"/>
       <c r="C4" s="43" t="n"/>
       <c r="D4" s="43" t="n"/>
@@ -783,7 +783,7 @@
       <c r="AJ4" s="43" t="n"/>
     </row>
     <row r="5" ht="12" customHeight="1">
-      <c r="A5" s="34" t="n"/>
+      <c r="A5" s="33" t="n"/>
       <c r="B5" s="43" t="n"/>
       <c r="C5" s="43" t="n"/>
       <c r="D5" s="43" t="n"/>
@@ -821,7 +821,7 @@
       <c r="AJ5" s="43" t="n"/>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="32" t="inlineStr">
+      <c r="A6" s="30" t="inlineStr">
         <is>
           <t>(наименование объекта капитального строительства в соответствии с проектной документацией, 
 почтовый или строительный адрес объекта капитального строительства)</t>
@@ -829,7 +829,7 @@
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="39" t="inlineStr">
+      <c r="A7" s="28" t="inlineStr">
         <is>
           <t>Застройщик, технический заказчик, лицо, ответственное за  эксплуатацию здания, сооружения, или региональный оператор</t>
         </is>
@@ -837,7 +837,7 @@
     </row>
     <row r="8" ht="12" customHeight="1"/>
     <row r="9" ht="12" customHeight="1">
-      <c r="A9" s="34" t="n"/>
+      <c r="A9" s="33" t="n"/>
       <c r="B9" s="43" t="n"/>
       <c r="C9" s="43" t="n"/>
       <c r="D9" s="43" t="n"/>
@@ -875,14 +875,14 @@
       <c r="AJ9" s="43" t="n"/>
     </row>
     <row r="10" ht="19.5" customHeight="1">
-      <c r="A10" s="32" t="inlineStr">
+      <c r="A10" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">(фамилия, имя, отчество (последнее -  при наличии), адрес места жительства, ОРГНИП, ИНН индивидуального предпринимателя, полное и (или) сокращенное наименование,  ОГРН, ИНН, адрес  юридического лица в пределах его нахождения, телефон или факс, </t>
         </is>
       </c>
     </row>
     <row r="11" ht="12" customHeight="1">
-      <c r="A11" s="34" t="n"/>
+      <c r="A11" s="33" t="n"/>
       <c r="B11" s="43" t="n"/>
       <c r="C11" s="43" t="n"/>
       <c r="D11" s="43" t="n"/>
@@ -920,14 +920,14 @@
       <c r="AJ11" s="43" t="n"/>
     </row>
     <row r="12" ht="28.5" customHeight="1">
-      <c r="A12" s="32" t="inlineStr">
+      <c r="A12" s="30" t="inlineStr">
         <is>
           <t>полное и (или) сокращенное наименование,  ОГРН, ИНН саморегулируемой организации, членом которой является указанное юридическое лицо или  индивидуальный предприниматель (за исключением случаев, когда членство в саморегулируемых организациях в области, строительства, реконструкции, капитального ремонта объектов капитального строительства не требуется); фамилия, имя, отчество</t>
         </is>
       </c>
     </row>
     <row r="13" ht="12" customHeight="1">
-      <c r="A13" s="34" t="n"/>
+      <c r="A13" s="33" t="n"/>
       <c r="B13" s="43" t="n"/>
       <c r="C13" s="43" t="n"/>
       <c r="D13" s="43" t="n"/>
@@ -965,7 +965,7 @@
       <c r="AJ13" s="43" t="n"/>
     </row>
     <row r="14" ht="11.25" customHeight="1">
-      <c r="A14" s="32" t="inlineStr">
+      <c r="A14" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve"> (последнее -  при наличии), паспортные данные, адрес места жительства, телефон или факс - для физических лиц, не являющихся индивидуальными предпринимателями)</t>
         </is>
@@ -979,7 +979,7 @@
       </c>
     </row>
     <row r="16" ht="12" customHeight="1">
-      <c r="A16" s="34" t="n"/>
+      <c r="A16" s="33" t="n"/>
       <c r="B16" s="43" t="n"/>
       <c r="C16" s="43" t="n"/>
       <c r="D16" s="43" t="n"/>
@@ -1017,14 +1017,14 @@
       <c r="AJ16" s="43" t="n"/>
     </row>
     <row r="17" ht="9.75" customHeight="1">
-      <c r="A17" s="32" t="inlineStr">
+      <c r="A17" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">(фамилия, имя, отчество (последнее -  при наличии), адрес места жительства, ОРГНИП, ИНН индивидуального предпринимателя, </t>
         </is>
       </c>
     </row>
     <row r="18" ht="12" customHeight="1">
-      <c r="A18" s="34" t="n"/>
+      <c r="A18" s="33" t="n"/>
       <c r="B18" s="43" t="n"/>
       <c r="C18" s="43" t="n"/>
       <c r="D18" s="43" t="n"/>
@@ -1062,14 +1062,14 @@
       <c r="AJ18" s="43" t="n"/>
     </row>
     <row r="19" ht="8.25" customHeight="1">
-      <c r="A19" s="32" t="inlineStr">
+      <c r="A19" s="30" t="inlineStr">
         <is>
           <t>полное и (или) сокращенное наименование,  ОГРН, ИНН, адрес юридического лица в пределах его местонахождения, телефон или факс,</t>
         </is>
       </c>
     </row>
     <row r="20" ht="12" customHeight="1">
-      <c r="A20" s="34" t="n"/>
+      <c r="A20" s="33" t="n"/>
       <c r="B20" s="43" t="n"/>
       <c r="C20" s="43" t="n"/>
       <c r="D20" s="43" t="n"/>
@@ -1107,7 +1107,7 @@
       <c r="AJ20" s="43" t="n"/>
     </row>
     <row r="21" ht="27" customHeight="1">
-      <c r="A21" s="32" t="inlineStr">
+      <c r="A21" s="30" t="inlineStr">
         <is>
           <t>полное и (или) сокращенное наименование,  ОГРН, ИНН саморегулируемой организации, членом которой является указанное юридическое лицо или  индивидуальный предприниматель (за исключением случаев, когда членство в саморегулируемых организациях в области строительства, 
 реконструкции, капитального ремонта объектов капитального строительства не требуется)</t>
@@ -1122,7 +1122,7 @@
       </c>
     </row>
     <row r="23" ht="12" customHeight="1">
-      <c r="A23" s="34" t="n"/>
+      <c r="A23" s="33" t="n"/>
       <c r="B23" s="43" t="n"/>
       <c r="C23" s="43" t="n"/>
       <c r="D23" s="43" t="n"/>
@@ -1160,14 +1160,14 @@
       <c r="AJ23" s="43" t="n"/>
     </row>
     <row r="24" ht="7.5" customHeight="1">
-      <c r="A24" s="32" t="inlineStr">
+      <c r="A24" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">(фамилия, имя, отчество (последнее -  при наличии), адрес места жительства, ОРГНИП, ИНН индивидуального предпринимателя, </t>
         </is>
       </c>
     </row>
     <row r="25" ht="12" customHeight="1">
-      <c r="A25" s="34" t="n"/>
+      <c r="A25" s="33" t="n"/>
       <c r="B25" s="43" t="n"/>
       <c r="C25" s="43" t="n"/>
       <c r="D25" s="43" t="n"/>
@@ -1205,14 +1205,14 @@
       <c r="AJ25" s="43" t="n"/>
     </row>
     <row r="26" ht="7.5" customHeight="1">
-      <c r="A26" s="32" t="inlineStr">
+      <c r="A26" s="30" t="inlineStr">
         <is>
           <t>полное и (или) сокращенное наименование,  ОГРН, ИНН, адрес юридического лица в пределах его места нахождения, телефон или факс,</t>
         </is>
       </c>
     </row>
     <row r="27" ht="12" customHeight="1">
-      <c r="A27" s="34" t="n"/>
+      <c r="A27" s="33" t="n"/>
       <c r="B27" s="43" t="n"/>
       <c r="C27" s="43" t="n"/>
       <c r="D27" s="43" t="n"/>
@@ -1250,7 +1250,7 @@
       <c r="AJ27" s="43" t="n"/>
     </row>
     <row r="28" ht="22.5" customHeight="1">
-      <c r="A28" s="32" t="inlineStr">
+      <c r="A28" s="30" t="inlineStr">
         <is>
           <t>полное и (или) сокращенное наименование,  ОГРН, ИНН саморегулируемой организации, членом которой является указанное юридическое лицо или  индивидуальный предприниматель (за исключением случаев, когда членство в саморегулируемых организациях в области архитектурно-строительного проектирования не требуется)</t>
         </is>
@@ -1274,14 +1274,14 @@
       <c r="O29" s="12" t="n"/>
     </row>
     <row r="30" ht="12.95" customHeight="1">
-      <c r="A30" s="42" t="inlineStr">
+      <c r="A30" s="35" t="inlineStr">
         <is>
           <t>АКТ</t>
         </is>
       </c>
     </row>
     <row r="31" ht="12.95" customHeight="1">
-      <c r="A31" s="35" t="inlineStr">
+      <c r="A31" s="42" t="inlineStr">
         <is>
           <t>освидетельствования скрытых работ</t>
         </is>
@@ -1306,9 +1306,9 @@
           <t>№</t>
         </is>
       </c>
-      <c r="C33" s="28" t="inlineStr">
-        <is>
-          <t>265</t>
+      <c r="C33" s="36" t="inlineStr">
+        <is>
+          <t>ООО "СКМ</t>
         </is>
       </c>
       <c r="D33" s="43" t="n"/>
@@ -1336,19 +1336,19 @@
           <t>"</t>
         </is>
       </c>
-      <c r="Y33" s="28" t="n"/>
+      <c r="Y33" s="36" t="n"/>
       <c r="Z33" s="43" t="n"/>
       <c r="AA33" s="23" t="inlineStr">
         <is>
           <t>"</t>
         </is>
       </c>
-      <c r="AB33" s="28" t="n"/>
+      <c r="AB33" s="36" t="n"/>
       <c r="AC33" s="43" t="n"/>
       <c r="AD33" s="43" t="n"/>
       <c r="AE33" s="43" t="n"/>
       <c r="AF33" s="23" t="n"/>
-      <c r="AG33" s="28" t="n"/>
+      <c r="AG33" s="36" t="n"/>
       <c r="AH33" s="43" t="n"/>
       <c r="AI33" s="43" t="n"/>
       <c r="AJ33" s="23" t="inlineStr">
@@ -1386,14 +1386,14 @@
       <c r="AH35" s="13" t="n"/>
     </row>
     <row r="36" ht="27.75" customHeight="1">
-      <c r="A36" s="39" t="inlineStr">
+      <c r="A36" s="28" t="inlineStr">
         <is>
           <t>Представитель застройщика, технического заказчика, лица, ответственного за эксплуатацию здания, сооружения, или регионального оператора по вопросам строительного контроля</t>
         </is>
       </c>
     </row>
     <row r="37" ht="12" customHeight="1">
-      <c r="A37" s="34" t="n"/>
+      <c r="A37" s="33" t="n"/>
       <c r="B37" s="43" t="n"/>
       <c r="C37" s="43" t="n"/>
       <c r="D37" s="43" t="n"/>
@@ -1431,14 +1431,14 @@
       <c r="AJ37" s="43" t="n"/>
     </row>
     <row r="38" ht="28.5" customHeight="1">
-      <c r="A38" s="32" t="inlineStr">
+      <c r="A38" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">(должность (при наличии), фамилия, инициалы, идентификационный номер в национальном реестре специалистов в области строительства (за исключением случаев, когда членство в саморегулируемых организациях в области строительства, реконструкции, капитального ремонта обектов капитального строительства не требуется), реквизиты распоряительного документа, подтверждающего полномочия, </t>
         </is>
       </c>
     </row>
     <row r="39" ht="12" customHeight="1">
-      <c r="A39" s="34" t="n"/>
+      <c r="A39" s="33" t="n"/>
       <c r="B39" s="43" t="n"/>
       <c r="C39" s="43" t="n"/>
       <c r="D39" s="43" t="n"/>
@@ -1476,7 +1476,7 @@
       <c r="AJ39" s="43" t="n"/>
     </row>
     <row r="40" ht="25.5" customHeight="1">
-      <c r="A40" s="41" t="inlineStr">
+      <c r="A40" s="34" t="inlineStr">
         <is>
           <t>с указанием полного и (или) сокращенного наименования, ОГРН, ИНН, адреса юридического лица в пределах его места нахождения (в случае осуществления строительного контроля на основании договора с застройщиком или техническим заказчиком), фамилии, имени, отчества (последнее - при наличии), адреса места жительства, ОГРНИП, ИНН индивиуального предпринимателя (в случае осуществления строительного контроля на основании договора с застройщиком или техническим заказчиком)</t>
         </is>
@@ -1525,7 +1525,7 @@
       </c>
     </row>
     <row r="42" ht="12" customHeight="1">
-      <c r="A42" s="34" t="n"/>
+      <c r="A42" s="33" t="n"/>
       <c r="B42" s="43" t="n"/>
       <c r="C42" s="43" t="n"/>
       <c r="D42" s="43" t="n"/>
@@ -1563,21 +1563,21 @@
       <c r="AJ42" s="43" t="n"/>
     </row>
     <row r="43" ht="9" customHeight="1">
-      <c r="A43" s="32" t="inlineStr">
+      <c r="A43" s="30" t="inlineStr">
         <is>
           <t>(должность (при наличии), фамилия, инициалы, реквизиты распорядительного документа, подтверждающего полномочия)</t>
         </is>
       </c>
     </row>
     <row r="44" ht="27.75" customHeight="1">
-      <c r="A44" s="39" t="inlineStr">
+      <c r="A44" s="28" t="inlineStr">
         <is>
           <t>Представитель лица, осуществляющего строительство, реконструкцию, капитальный ремонт, по вопросам строительного контроля</t>
         </is>
       </c>
     </row>
     <row r="45" ht="12.95" customFormat="1" customHeight="1" s="2">
-      <c r="A45" s="40" t="n"/>
+      <c r="A45" s="32" t="n"/>
       <c r="B45" s="43" t="n"/>
       <c r="C45" s="43" t="n"/>
       <c r="D45" s="43" t="n"/>
@@ -1615,7 +1615,7 @@
       <c r="AJ45" s="43" t="n"/>
     </row>
     <row r="46" ht="30" customHeight="1">
-      <c r="A46" s="32" t="inlineStr">
+      <c r="A46" s="30" t="inlineStr">
         <is>
           <t>(должность (при наличии), фамилия, инициалы, идентификационный номер в национальном реестре специалистов в области строительства (за исключением случаев, когда членство в саморегулируемых организациях в области строительства, реконструкции, капитального ремонта обектов капитального строительства не требуется), 
 реквизиты распоряительного документа, подтверждающего полномочия)</t>
@@ -1623,14 +1623,14 @@
       </c>
     </row>
     <row r="47" ht="54.75" customHeight="1">
-      <c r="A47" s="31" t="inlineStr">
+      <c r="A47" s="29" t="inlineStr">
         <is>
           <t>Представитель лица, осуществляющего подготовку проектной документации (в случае привлечения застройщиком лица, осуществляющего подготовку проектной документации, для проверки соответствия выполняемых работ проектной документации  согласно части 2 статьи 53 Градостроительного кодекса Российской Федерации)</t>
         </is>
       </c>
     </row>
     <row r="48" ht="12.95" customFormat="1" customHeight="1" s="2">
-      <c r="A48" s="40" t="n"/>
+      <c r="A48" s="32" t="n"/>
       <c r="B48" s="43" t="n"/>
       <c r="C48" s="43" t="n"/>
       <c r="D48" s="43" t="n"/>
@@ -1668,21 +1668,21 @@
       <c r="AJ48" s="43" t="n"/>
     </row>
     <row r="49" ht="29.25" customHeight="1">
-      <c r="A49" s="32" t="inlineStr">
+      <c r="A49" s="30" t="inlineStr">
         <is>
           <t>(должность (при наличии), фамилия, инициалы, реквизиты распорядительного документа, подтверждающего полномочия, с указанием полного и (или) сокращенного наименования, ОГРН, ИНН, адреса юридического лица в пределах его места нахождения, фамилии, имени, отчества (последнее - при наличии), адреса места жительства, ОГРНИП, ИНН индивиуального предпринимателя)</t>
         </is>
       </c>
     </row>
     <row r="50" ht="42" customHeight="1">
-      <c r="A50" s="31" t="inlineStr">
+      <c r="A50" s="29" t="inlineStr">
         <is>
           <t>Представитель лица, выполнившего работы, подлежащие освидетельствованию (в случае выполнения работ по договорам о строительстве, реконcтрукции, капитальном ремонте объектов капитального строительства, заключенным с иными лицами)</t>
         </is>
       </c>
     </row>
     <row r="51" ht="12" customHeight="1">
-      <c r="A51" s="36" t="n"/>
+      <c r="A51" s="41" t="n"/>
       <c r="B51" s="43" t="n"/>
       <c r="C51" s="43" t="n"/>
       <c r="D51" s="43" t="n"/>
@@ -1720,14 +1720,14 @@
       <c r="AJ51" s="43" t="n"/>
     </row>
     <row r="52" ht="9.75" customHeight="1">
-      <c r="A52" s="32" t="inlineStr">
+      <c r="A52" s="30" t="inlineStr">
         <is>
           <t>(должность (при наличии), фамилия, инициалы, реквизиты распорядительного документа, подтверждающего полномочия,</t>
         </is>
       </c>
     </row>
     <row r="53" ht="12" customHeight="1">
-      <c r="A53" s="36" t="n"/>
+      <c r="A53" s="41" t="n"/>
       <c r="B53" s="43" t="n"/>
       <c r="C53" s="43" t="n"/>
       <c r="D53" s="43" t="n"/>
@@ -1765,7 +1765,7 @@
       <c r="AJ53" s="43" t="n"/>
     </row>
     <row r="54" ht="16.5" customHeight="1">
-      <c r="A54" s="32" t="inlineStr">
+      <c r="A54" s="30" t="inlineStr">
         <is>
           <t>с указанием полного и (или) сокращенного наименования, ОГРН, ИНН, адреса юридического лица в пределах его места нахождения, фамилии, имени, отчества (последнее - при наличии), адреса места жительства, ОРГНИП, ИНН индивидуального предпринимателя)</t>
         </is>
@@ -1779,7 +1779,7 @@
       </c>
     </row>
     <row r="56" ht="12.95" customHeight="1">
-      <c r="A56" s="28" t="n"/>
+      <c r="A56" s="36" t="n"/>
       <c r="B56" s="43" t="n"/>
       <c r="C56" s="43" t="n"/>
       <c r="D56" s="43" t="n"/>
@@ -1817,7 +1817,7 @@
       <c r="AJ56" s="43" t="n"/>
     </row>
     <row r="57" ht="10.5" customHeight="1">
-      <c r="A57" s="29" t="inlineStr">
+      <c r="A57" s="37" t="inlineStr">
         <is>
           <t>(полное и (или) сокращенное наименование или фамилия, имя, отчество (последнее - при наличии) лица,  выполнившего работы, подлежащие освидетельствованию)</t>
         </is>
@@ -1873,7 +1873,7 @@
       </c>
     </row>
     <row r="60" ht="12" customHeight="1">
-      <c r="A60" s="36" t="n"/>
+      <c r="A60" s="41" t="n"/>
       <c r="B60" s="43" t="n"/>
       <c r="C60" s="43" t="n"/>
       <c r="D60" s="43" t="n"/>
@@ -1911,7 +1911,7 @@
       <c r="AJ60" s="43" t="n"/>
     </row>
     <row r="61" ht="8.25" customHeight="1">
-      <c r="A61" s="32" t="inlineStr">
+      <c r="A61" s="30" t="inlineStr">
         <is>
           <t>(наименование скрытых работ)</t>
         </is>
@@ -1925,7 +1925,7 @@
       </c>
     </row>
     <row r="63" ht="12" customHeight="1">
-      <c r="A63" s="36" t="n"/>
+      <c r="A63" s="41" t="n"/>
       <c r="B63" s="43" t="n"/>
       <c r="C63" s="43" t="n"/>
       <c r="D63" s="43" t="n"/>
@@ -1963,7 +1963,7 @@
       <c r="AJ63" s="43" t="n"/>
     </row>
     <row r="64" ht="15" customHeight="1">
-      <c r="A64" s="32" t="inlineStr">
+      <c r="A64" s="30" t="inlineStr">
         <is>
           <t>(номер, другие реквизиты чертежа, наименование проектной и/или рабочей документации, 
  сведения о лицах, осуществляющих подготовку раздела проектной и/или рабочей документации)</t>
@@ -1976,7 +1976,7 @@
           <t>3. При выполнении работ применены</t>
         </is>
       </c>
-      <c r="P65" s="28" t="n"/>
+      <c r="P65" s="36" t="n"/>
       <c r="Q65" s="43" t="n"/>
       <c r="R65" s="43" t="n"/>
       <c r="S65" s="43" t="n"/>
@@ -2014,7 +2014,7 @@
       <c r="M66" s="11" t="n"/>
       <c r="N66" s="11" t="n"/>
       <c r="O66" s="11" t="n"/>
-      <c r="P66" s="30" t="inlineStr">
+      <c r="P66" s="38" t="inlineStr">
         <is>
           <t>(наименования строительных  материалов (изделий),</t>
         </is>
@@ -2041,7 +2041,7 @@
       <c r="AJ66" s="44" t="n"/>
     </row>
     <row r="67" ht="12" customHeight="1">
-      <c r="A67" s="36" t="n"/>
+      <c r="A67" s="41" t="n"/>
       <c r="B67" s="43" t="n"/>
       <c r="C67" s="43" t="n"/>
       <c r="D67" s="43" t="n"/>
@@ -2079,7 +2079,7 @@
       <c r="AJ67" s="43" t="n"/>
     </row>
     <row r="68" ht="18.75" customHeight="1">
-      <c r="A68" s="32" t="inlineStr">
+      <c r="A68" s="30" t="inlineStr">
         <is>
           <t>реквизиты сертификатов и (или) других документов, подтверждающих их качество и безопасность, 
 в случае если необходимо указывать более 5 документов, указывается ссылка на их реестр, который является неотъемлемой частью акта)</t>
@@ -2099,7 +2099,7 @@
           <t>требованиям:</t>
         </is>
       </c>
-      <c r="G70" s="28" t="n"/>
+      <c r="G70" s="36" t="n"/>
       <c r="H70" s="43" t="n"/>
       <c r="I70" s="43" t="n"/>
       <c r="J70" s="43" t="n"/>
@@ -2131,19 +2131,19 @@
       <c r="AJ70" s="43" t="n"/>
     </row>
     <row r="71" ht="7.5" customHeight="1">
-      <c r="A71" s="37" t="n"/>
+      <c r="A71" s="39" t="n"/>
       <c r="C71" s="10" t="n"/>
       <c r="D71" s="10" t="n"/>
       <c r="E71" s="10" t="n"/>
       <c r="F71" s="10" t="n"/>
-      <c r="G71" s="33" t="inlineStr">
+      <c r="G71" s="31" t="inlineStr">
         <is>
           <t>(исполнительные схемы и чертежи, результаты экспертиз, обследований, лабораторных</t>
         </is>
       </c>
     </row>
     <row r="72" ht="12" customHeight="1">
-      <c r="A72" s="28" t="n"/>
+      <c r="A72" s="36" t="n"/>
       <c r="B72" s="43" t="n"/>
       <c r="C72" s="43" t="n"/>
       <c r="D72" s="43" t="n"/>
@@ -2181,7 +2181,7 @@
       <c r="AJ72" s="43" t="n"/>
     </row>
     <row r="73" ht="7.5" customHeight="1">
-      <c r="A73" s="32" t="inlineStr">
+      <c r="A73" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve"> и иных испытаний выполненных работ, проведенных в процессе строительного контроля)</t>
         </is>
@@ -2241,19 +2241,19 @@
           <t>"</t>
         </is>
       </c>
-      <c r="M75" s="28" t="n"/>
+      <c r="M75" s="36" t="n"/>
       <c r="N75" s="43" t="n"/>
       <c r="O75" s="23" t="inlineStr">
         <is>
           <t>"</t>
         </is>
       </c>
-      <c r="P75" s="28" t="n"/>
+      <c r="P75" s="36" t="n"/>
       <c r="Q75" s="43" t="n"/>
       <c r="R75" s="43" t="n"/>
       <c r="S75" s="43" t="n"/>
       <c r="T75" s="23" t="n"/>
-      <c r="U75" s="28" t="n"/>
+      <c r="U75" s="36" t="n"/>
       <c r="V75" s="43" t="n"/>
       <c r="W75" s="43" t="n"/>
       <c r="X75" s="23" t="inlineStr">
@@ -2280,19 +2280,19 @@
           <t>"</t>
         </is>
       </c>
-      <c r="M76" s="38" t="n"/>
+      <c r="M76" s="40" t="n"/>
       <c r="N76" s="45" t="n"/>
       <c r="O76" s="23" t="inlineStr">
         <is>
           <t>"</t>
         </is>
       </c>
-      <c r="P76" s="38" t="n"/>
+      <c r="P76" s="40" t="n"/>
       <c r="Q76" s="45" t="n"/>
       <c r="R76" s="45" t="n"/>
       <c r="S76" s="45" t="n"/>
       <c r="T76" s="23" t="n"/>
-      <c r="U76" s="38" t="n"/>
+      <c r="U76" s="40" t="n"/>
       <c r="V76" s="45" t="n"/>
       <c r="W76" s="45" t="n"/>
       <c r="X76" s="23" t="inlineStr">
@@ -2319,7 +2319,7 @@
       </c>
     </row>
     <row r="79" ht="12" customHeight="1">
-      <c r="A79" s="28" t="n"/>
+      <c r="A79" s="36" t="n"/>
       <c r="B79" s="43" t="n"/>
       <c r="C79" s="43" t="n"/>
       <c r="D79" s="43" t="n"/>
@@ -2357,14 +2357,14 @@
       <c r="AJ79" s="43" t="n"/>
     </row>
     <row r="80" ht="8.25" customHeight="1">
-      <c r="A80" s="32" t="inlineStr">
+      <c r="A80" s="30" t="inlineStr">
         <is>
           <t>(наименования и структурные единицы технических регламентов,</t>
         </is>
       </c>
     </row>
     <row r="81" ht="12" customHeight="1">
-      <c r="A81" s="28" t="n"/>
+      <c r="A81" s="36" t="n"/>
       <c r="B81" s="43" t="n"/>
       <c r="C81" s="43" t="n"/>
       <c r="D81" s="43" t="n"/>
@@ -2402,7 +2402,7 @@
       <c r="AJ81" s="43" t="n"/>
     </row>
     <row r="82" ht="8.25" customHeight="1">
-      <c r="A82" s="32" t="inlineStr">
+      <c r="A82" s="30" t="inlineStr">
         <is>
           <t>иных нормативных правовых актов, разделы проектной и (или) рабочей документации)</t>
         </is>
@@ -2416,7 +2416,7 @@
       </c>
     </row>
     <row r="84" ht="12" customHeight="1">
-      <c r="A84" s="28" t="n"/>
+      <c r="A84" s="36" t="n"/>
       <c r="B84" s="43" t="n"/>
       <c r="C84" s="43" t="n"/>
       <c r="D84" s="43" t="n"/>
@@ -2454,7 +2454,7 @@
       <c r="AJ84" s="43" t="n"/>
     </row>
     <row r="85" ht="9" customHeight="1">
-      <c r="A85" s="32" t="inlineStr">
+      <c r="A85" s="30" t="inlineStr">
         <is>
           <t>(наименование работ, строительных конструкций, участков сетей инженерно-технического обеспечения)</t>
         </is>
@@ -2473,7 +2473,7 @@
       <c r="H86" s="23" t="n"/>
       <c r="I86" s="23" t="n"/>
       <c r="J86" s="23" t="n"/>
-      <c r="L86" s="28" t="n"/>
+      <c r="L86" s="36" t="n"/>
       <c r="M86" s="43" t="n"/>
       <c r="N86" s="43" t="n"/>
       <c r="O86" s="43" t="n"/>
@@ -2514,7 +2514,7 @@
           <t xml:space="preserve">Акт составлен в  </t>
         </is>
       </c>
-      <c r="H88" s="28" t="n"/>
+      <c r="H88" s="36" t="n"/>
       <c r="I88" s="43" t="n"/>
       <c r="J88" s="23" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
       </c>
     </row>
     <row r="91" ht="12" customHeight="1">
-      <c r="A91" s="28" t="n"/>
+      <c r="A91" s="36" t="n"/>
       <c r="B91" s="43" t="n"/>
       <c r="C91" s="43" t="n"/>
       <c r="D91" s="43" t="n"/>
@@ -2569,7 +2569,7 @@
       <c r="AJ91" s="43" t="n"/>
     </row>
     <row r="92" ht="9.75" customHeight="1">
-      <c r="A92" s="32" t="inlineStr">
+      <c r="A92" s="30" t="inlineStr">
         <is>
           <t>(исполнительные схемы и чертежи, результаты экспертиз, обследований, лабораторных и иных испытаний)</t>
         </is>
@@ -2628,7 +2628,7 @@
       </c>
     </row>
     <row r="96" ht="12" customHeight="1">
-      <c r="A96" s="28" t="n"/>
+      <c r="A96" s="36" t="n"/>
       <c r="B96" s="43" t="n"/>
       <c r="C96" s="43" t="n"/>
       <c r="D96" s="43" t="n"/>
@@ -2655,7 +2655,7 @@
       <c r="Y96" s="18" t="n"/>
       <c r="Z96" s="18" t="n"/>
       <c r="AA96" s="18" t="n"/>
-      <c r="AB96" s="28" t="n"/>
+      <c r="AB96" s="36" t="n"/>
       <c r="AC96" s="43" t="n"/>
       <c r="AD96" s="43" t="n"/>
       <c r="AE96" s="43" t="n"/>
@@ -2666,7 +2666,7 @@
       <c r="AJ96" s="43" t="n"/>
     </row>
     <row r="97" ht="9" customHeight="1">
-      <c r="A97" s="29" t="inlineStr">
+      <c r="A97" s="37" t="inlineStr">
         <is>
           <t>(фамилия, инициалы)</t>
         </is>
@@ -2697,7 +2697,7 @@
       <c r="Y97" s="19" t="n"/>
       <c r="Z97" s="19" t="n"/>
       <c r="AA97" s="19" t="n"/>
-      <c r="AB97" s="30" t="inlineStr">
+      <c r="AB97" s="38" t="inlineStr">
         <is>
           <t>(подпись)</t>
         </is>
@@ -2719,7 +2719,7 @@
       </c>
     </row>
     <row r="99" ht="12" customHeight="1">
-      <c r="A99" s="28" t="n"/>
+      <c r="A99" s="36" t="n"/>
       <c r="B99" s="43" t="n"/>
       <c r="C99" s="43" t="n"/>
       <c r="D99" s="43" t="n"/>
@@ -2746,7 +2746,7 @@
       <c r="Y99" s="18" t="n"/>
       <c r="Z99" s="18" t="n"/>
       <c r="AA99" s="18" t="n"/>
-      <c r="AB99" s="28" t="n"/>
+      <c r="AB99" s="36" t="n"/>
       <c r="AC99" s="43" t="n"/>
       <c r="AD99" s="43" t="n"/>
       <c r="AE99" s="43" t="n"/>
@@ -2757,7 +2757,7 @@
       <c r="AJ99" s="43" t="n"/>
     </row>
     <row r="100" ht="9" customHeight="1">
-      <c r="A100" s="29" t="inlineStr">
+      <c r="A100" s="37" t="inlineStr">
         <is>
           <t>(фамилия, инициалы)</t>
         </is>
@@ -2788,7 +2788,7 @@
       <c r="Y100" s="19" t="n"/>
       <c r="Z100" s="19" t="n"/>
       <c r="AA100" s="19" t="n"/>
-      <c r="AB100" s="30" t="inlineStr">
+      <c r="AB100" s="38" t="inlineStr">
         <is>
           <t>(подпись)</t>
         </is>
@@ -2817,7 +2817,7 @@
       </c>
     </row>
     <row r="103" ht="12" customHeight="1">
-      <c r="A103" s="28" t="n"/>
+      <c r="A103" s="36" t="n"/>
       <c r="B103" s="43" t="n"/>
       <c r="C103" s="43" t="n"/>
       <c r="D103" s="43" t="n"/>
@@ -2844,7 +2844,7 @@
       <c r="Y103" s="18" t="n"/>
       <c r="Z103" s="18" t="n"/>
       <c r="AA103" s="18" t="n"/>
-      <c r="AB103" s="28" t="n"/>
+      <c r="AB103" s="36" t="n"/>
       <c r="AC103" s="43" t="n"/>
       <c r="AD103" s="43" t="n"/>
       <c r="AE103" s="43" t="n"/>
@@ -2855,7 +2855,7 @@
       <c r="AJ103" s="43" t="n"/>
     </row>
     <row r="104" ht="9" customHeight="1">
-      <c r="A104" s="29" t="inlineStr">
+      <c r="A104" s="37" t="inlineStr">
         <is>
           <t>(фамилия, инициалы)</t>
         </is>
@@ -2886,7 +2886,7 @@
       <c r="Y104" s="19" t="n"/>
       <c r="Z104" s="19" t="n"/>
       <c r="AA104" s="19" t="n"/>
-      <c r="AB104" s="30" t="inlineStr">
+      <c r="AB104" s="38" t="inlineStr">
         <is>
           <t>(подпись)</t>
         </is>
@@ -2901,14 +2901,14 @@
       <c r="AJ104" s="44" t="n"/>
     </row>
     <row r="105" ht="54.75" customHeight="1">
-      <c r="A105" s="31" t="inlineStr">
+      <c r="A105" s="29" t="inlineStr">
         <is>
           <t>Представитель лица, осуществляющего подготовку проектной документации (в случае привлечения застройщиком лица, осуществляющего подготовку проектной документации, для проверки соответствия выполняемых работ проектной документации  согласно части 2 статьи 53 Градостроительного кодекса Российской Федерации)</t>
         </is>
       </c>
     </row>
     <row r="106" ht="12" customHeight="1">
-      <c r="A106" s="28" t="n"/>
+      <c r="A106" s="36" t="n"/>
       <c r="B106" s="43" t="n"/>
       <c r="C106" s="43" t="n"/>
       <c r="D106" s="43" t="n"/>
@@ -2935,7 +2935,7 @@
       <c r="Y106" s="18" t="n"/>
       <c r="Z106" s="18" t="n"/>
       <c r="AA106" s="18" t="n"/>
-      <c r="AB106" s="28" t="n"/>
+      <c r="AB106" s="36" t="n"/>
       <c r="AC106" s="43" t="n"/>
       <c r="AD106" s="43" t="n"/>
       <c r="AE106" s="43" t="n"/>
@@ -2946,7 +2946,7 @@
       <c r="AJ106" s="43" t="n"/>
     </row>
     <row r="107" ht="9" customHeight="1">
-      <c r="A107" s="29" t="inlineStr">
+      <c r="A107" s="37" t="inlineStr">
         <is>
           <t>(фамилия, инициалы)</t>
         </is>
@@ -2977,7 +2977,7 @@
       <c r="Y107" s="19" t="n"/>
       <c r="Z107" s="19" t="n"/>
       <c r="AA107" s="19" t="n"/>
-      <c r="AB107" s="30" t="inlineStr">
+      <c r="AB107" s="38" t="inlineStr">
         <is>
           <t>(подпись)</t>
         </is>
@@ -2992,14 +2992,14 @@
       <c r="AJ107" s="44" t="n"/>
     </row>
     <row r="108" ht="40.5" customHeight="1">
-      <c r="A108" s="31" t="inlineStr">
+      <c r="A108" s="29" t="inlineStr">
         <is>
           <t>Представитель лица, выполнившего работы, подлежащие освидетельствованию (в случае выполнения работ по договорам о строительстве, реконcтрукции, капитальном ремонте объектов капитального строительства, заключенным с иными лицами)</t>
         </is>
       </c>
     </row>
     <row r="109" ht="12" customHeight="1">
-      <c r="A109" s="28" t="n"/>
+      <c r="A109" s="36" t="n"/>
       <c r="B109" s="43" t="n"/>
       <c r="C109" s="43" t="n"/>
       <c r="D109" s="43" t="n"/>
@@ -3026,7 +3026,7 @@
       <c r="Y109" s="18" t="n"/>
       <c r="Z109" s="18" t="n"/>
       <c r="AA109" s="18" t="n"/>
-      <c r="AB109" s="28" t="n"/>
+      <c r="AB109" s="36" t="n"/>
       <c r="AC109" s="43" t="n"/>
       <c r="AD109" s="43" t="n"/>
       <c r="AE109" s="43" t="n"/>
@@ -3037,7 +3037,7 @@
       <c r="AJ109" s="43" t="n"/>
     </row>
     <row r="110" ht="9" customHeight="1">
-      <c r="A110" s="29" t="inlineStr">
+      <c r="A110" s="37" t="inlineStr">
         <is>
           <t>(фамилия, инициалы)</t>
         </is>
@@ -3068,7 +3068,7 @@
       <c r="Y110" s="19" t="n"/>
       <c r="Z110" s="19" t="n"/>
       <c r="AA110" s="19" t="n"/>
-      <c r="AB110" s="30" t="inlineStr">
+      <c r="AB110" s="38" t="inlineStr">
         <is>
           <t>(подпись)</t>
         </is>
@@ -3092,16 +3092,16 @@
     <mergeCell ref="A108:AJ108"/>
     <mergeCell ref="AB33:AE33"/>
     <mergeCell ref="A84:AJ84"/>
+    <mergeCell ref="A18:AJ18"/>
     <mergeCell ref="A104:O104"/>
-    <mergeCell ref="A18:AJ18"/>
     <mergeCell ref="A50:AJ50"/>
     <mergeCell ref="AB97:AJ97"/>
     <mergeCell ref="A97:O97"/>
     <mergeCell ref="A42:AJ42"/>
     <mergeCell ref="A106:O106"/>
     <mergeCell ref="A47:AJ47"/>
+    <mergeCell ref="AG33:AI33"/>
     <mergeCell ref="A96:O96"/>
-    <mergeCell ref="AG33:AI33"/>
     <mergeCell ref="A20:AJ20"/>
     <mergeCell ref="A72:AJ72"/>
     <mergeCell ref="A28:AJ28"/>
@@ -3125,8 +3125,8 @@
     <mergeCell ref="A71:B71"/>
     <mergeCell ref="A53:AJ53"/>
     <mergeCell ref="A10:AJ10"/>
+    <mergeCell ref="A19:AJ19"/>
     <mergeCell ref="A68:AJ68"/>
-    <mergeCell ref="A19:AJ19"/>
     <mergeCell ref="M76:N76"/>
     <mergeCell ref="A9:AJ9"/>
     <mergeCell ref="AB104:AJ104"/>
@@ -3138,21 +3138,21 @@
     <mergeCell ref="AB106:AJ106"/>
     <mergeCell ref="A45:AJ45"/>
     <mergeCell ref="U76:W76"/>
+    <mergeCell ref="C33:G33"/>
     <mergeCell ref="AB99:AJ99"/>
-    <mergeCell ref="C33:G33"/>
     <mergeCell ref="P65:AJ65"/>
     <mergeCell ref="A80:AJ80"/>
+    <mergeCell ref="A37:AJ37"/>
     <mergeCell ref="A46:AJ46"/>
-    <mergeCell ref="A37:AJ37"/>
     <mergeCell ref="A21:AJ21"/>
     <mergeCell ref="A105:AJ105"/>
+    <mergeCell ref="A57:AJ57"/>
     <mergeCell ref="A26:AJ26"/>
-    <mergeCell ref="A57:AJ57"/>
+    <mergeCell ref="M75:N75"/>
     <mergeCell ref="L86:AJ86"/>
-    <mergeCell ref="M75:N75"/>
     <mergeCell ref="A100:O100"/>
+    <mergeCell ref="A109:O109"/>
     <mergeCell ref="A23:AJ23"/>
-    <mergeCell ref="A109:O109"/>
     <mergeCell ref="A91:AJ91"/>
     <mergeCell ref="A43:AJ43"/>
     <mergeCell ref="A7:AJ8"/>
@@ -3178,9 +3178,9 @@
     <mergeCell ref="A40:AJ40"/>
     <mergeCell ref="A67:AJ67"/>
     <mergeCell ref="AB110:AJ110"/>
+    <mergeCell ref="A110:O110"/>
+    <mergeCell ref="A24:AJ24"/>
     <mergeCell ref="A73:AJ73"/>
-    <mergeCell ref="A24:AJ24"/>
-    <mergeCell ref="A110:O110"/>
     <mergeCell ref="A82:AJ82"/>
     <mergeCell ref="A60:AJ60"/>
     <mergeCell ref="AB100:AJ100"/>
